--- a/biology/Botanique/Abelia_chinensis/Abelia_chinensis.xlsx
+++ b/biology/Botanique/Abelia_chinensis/Abelia_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abelia chinensis est une espèce de plantes à fleurs de la famille des Caprifoliaceae et du genre Abelia, originaire de Chine.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier par Robert Brown en 1818, sous le nom binominal Abelia chinensis (basionyme)[1].
-Abelia chinensis a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par Robert Brown en 1818, sous le nom binominal Abelia chinensis (basionyme).
+Abelia chinensis a pour synonymes :
 Abelia aschersoniana (Graebn.) Rehder
 Abelia chinensis var. ionandra (Hayata) Masam.
 Abelia hanceana Martinus
@@ -555,10 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste à feuilles semi-persistantes, mesurant jusqu'à 2 m de haut, très ramifié. Les jeunes branches sont fines et pubescentes. Les feuilles sont opposées, parfois en verticilles de trois ; le limbe foliaire est ovoïde, de dimensions 2-5 × 1-3,5 cm, abaxialement peu pubescent, aux villosités d'un blanc dense à la base des nervures médianes et latérales, à base arrondie ou cordiforme, au bord lointain crénelé-serré, d'un apex aigu à long acuminé[3].
-Appareil reproducteur
-L'inflorescence est une grande panicule terminale de fleurs appariées (fleurs s'ouvrant consécutivement). Les fleurs sont odorantes, avec six bractées oblongues ou lancéolées à la base des ovaires appariés. Le calice a cinq sépales, elliptique, de 5–6 mm, devenant rouge au stade de la fructification. La corolle est pentalobée, blanche à rose, en forme d'entonnoir, de 10–12 mm, environ deux fois plus longue que les sépales, pubescente à l'extérieur et gibbeuse à la base du tube. Les étamines et le style sont longs exsérés ; les filaments sont minces, de longueur égale, insérés à la base du tube de la corolle. L'ovaire est cylindrique, légèrement comprimé, pubescent, strié longitudinalement ; les stigmates sont capitonnés. L'achène est couronné de sépales persistants et légèrement élargis. La diploïdie est de 2n=32[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste à feuilles semi-persistantes, mesurant jusqu'à 2 m de haut, très ramifié. Les jeunes branches sont fines et pubescentes. Les feuilles sont opposées, parfois en verticilles de trois ; le limbe foliaire est ovoïde, de dimensions 2-5 × 1-3,5 cm, abaxialement peu pubescent, aux villosités d'un blanc dense à la base des nervures médianes et latérales, à base arrondie ou cordiforme, au bord lointain crénelé-serré, d'un apex aigu à long acuminé.
 </t>
         </is>
       </c>
@@ -584,12 +601,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est une grande panicule terminale de fleurs appariées (fleurs s'ouvrant consécutivement). Les fleurs sont odorantes, avec six bractées oblongues ou lancéolées à la base des ovaires appariés. Le calice a cinq sépales, elliptique, de 5–6 mm, devenant rouge au stade de la fructification. La corolle est pentalobée, blanche à rose, en forme d'entonnoir, de 10–12 mm, environ deux fois plus longue que les sépales, pubescente à l'extérieur et gibbeuse à la base du tube. Les étamines et le style sont longs exsérés ; les filaments sont minces, de longueur égale, insérés à la base du tube de la corolle. L'ovaire est cylindrique, légèrement comprimé, pubescent, strié longitudinalement ; les stigmates sont capitonnés. L'achène est couronné de sépales persistants et légèrement élargis. La diploïdie est de 2n=32.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abelia_chinensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abelia_chinensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbuste pousse en Chine dans les montagnes, entre 200 et 1 500 m. On le trouve dans les régions suivantes : Fujian, Guangdong, Guangxi, Guizhou, Henan, Hubei, Hunan, Jiangsu, Jiangxi, Sichuan, Taiwan, Yunnan et Zhejiang. Cette espèce est couramment cultivée en Chine[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbuste pousse en Chine dans les montagnes, entre 200 et 1 500 m. On le trouve dans les régions suivantes : Fujian, Guangdong, Guangxi, Guizhou, Henan, Hubei, Hunan, Jiangsu, Jiangxi, Sichuan, Taiwan, Yunnan et Zhejiang. Cette espèce est couramment cultivée en Chine.
 </t>
         </is>
       </c>
